--- a/Import_Product/import_product_bu12.xlsx
+++ b/Import_Product/import_product_bu12.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>SET</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>product_tag_ids</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\image</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -756,6 +759,9 @@
       <c r="AC2" t="s">
         <v>60</v>
       </c>
+      <c r="AD2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
@@ -830,6 +836,9 @@
       <c r="AC3" t="s">
         <v>61</v>
       </c>
+      <c r="AD3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
@@ -907,6 +916,9 @@
       <c r="AC4" t="s">
         <v>61</v>
       </c>
+      <c r="AD4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
@@ -984,6 +996,9 @@
       <c r="AC5" t="s">
         <v>61</v>
       </c>
+      <c r="AD5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
@@ -1061,6 +1076,9 @@
       <c r="AC6" t="s">
         <v>61</v>
       </c>
+      <c r="AD6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
@@ -1138,6 +1156,9 @@
       <c r="AC7" t="s">
         <v>62</v>
       </c>
+      <c r="AD7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
@@ -1214,6 +1235,9 @@
       </c>
       <c r="AC8" t="s">
         <v>62</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:30">

--- a/Import_Product/import_product_bu12.xlsx
+++ b/Import_Product/import_product_bu12.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -714,6 +714,9 @@
       <c r="I2" t="s">
         <v>58</v>
       </c>
+      <c r="J2">
+        <v>8130.84</v>
+      </c>
       <c r="K2">
         <v>8130.84</v>
       </c>
@@ -788,6 +791,9 @@
       <c r="I3" t="s">
         <v>58</v>
       </c>
+      <c r="J3">
+        <v>10560.75</v>
+      </c>
       <c r="K3">
         <v>10560.75</v>
       </c>
@@ -868,6 +874,9 @@
       <c r="I4" t="s">
         <v>58</v>
       </c>
+      <c r="J4">
+        <v>10560.75</v>
+      </c>
       <c r="K4">
         <v>10560.75</v>
       </c>
@@ -948,6 +957,9 @@
       <c r="I5" t="s">
         <v>58</v>
       </c>
+      <c r="J5">
+        <v>10560.75</v>
+      </c>
       <c r="K5">
         <v>10560.75</v>
       </c>
@@ -1028,6 +1040,9 @@
       <c r="I6" t="s">
         <v>58</v>
       </c>
+      <c r="J6">
+        <v>21869.16</v>
+      </c>
       <c r="K6">
         <v>21869.16</v>
       </c>
@@ -1108,6 +1123,9 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>0</v>
       </c>
@@ -1187,6 +1205,9 @@
       </c>
       <c r="I8" t="s">
         <v>58</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>

--- a/Import_Product/import_product_bu12.xlsx
+++ b/Import_Product/import_product_bu12.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>SET</t>
   </si>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -594,10 +594,10 @@
     <col min="11" max="11" width="15.77734375" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" customWidth="1"/>
     <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="29" max="29" width="18.88671875" customWidth="1"/>
+    <col min="28" max="28" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -662,34 +662,31 @@
         <v>17</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -753,20 +750,17 @@
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
+      <c r="AA2" t="s">
+        <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -825,28 +819,25 @@
         <v>540</v>
       </c>
       <c r="W3">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="X3">
-        <v>920</v>
+        <v>28.94</v>
       </c>
       <c r="Y3">
-        <v>28.94</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>55</v>
       </c>
       <c r="AB3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AC3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -908,28 +899,25 @@
         <v>540</v>
       </c>
       <c r="W4">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="X4">
-        <v>920</v>
+        <v>28.94</v>
       </c>
       <c r="Y4">
-        <v>28.94</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>55</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AC4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -991,28 +979,25 @@
         <v>540</v>
       </c>
       <c r="W5">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="X5">
-        <v>920</v>
+        <v>29</v>
       </c>
       <c r="Y5">
-        <v>29</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>55</v>
       </c>
       <c r="AB5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AC5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1074,28 +1059,25 @@
         <v>540</v>
       </c>
       <c r="W6">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="X6">
-        <v>920</v>
+        <v>29</v>
       </c>
       <c r="Y6">
-        <v>29</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>55</v>
       </c>
       <c r="AB6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1165,20 +1147,17 @@
       <c r="Y7">
         <v>1</v>
       </c>
-      <c r="Z7">
-        <v>1</v>
+      <c r="AA7" t="s">
+        <v>55</v>
       </c>
       <c r="AB7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AC7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1248,35 +1227,32 @@
       <c r="Y8">
         <v>1</v>
       </c>
-      <c r="Z8">
-        <v>1</v>
+      <c r="AA8" t="s">
+        <v>55</v>
       </c>
       <c r="AB8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AC8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:29">
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:29">
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:29">
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:29">
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
